--- a/Dust/ResourceGuide.xlsx
+++ b/Dust/ResourceGuide.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12795"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>CobbleStonePillar</t>
+  </si>
+  <si>
+    <t>UIMaterial</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,6 +693,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C10">
     <sortCondition ref="A2"/>

--- a/Dust/ResourceGuide.xlsx
+++ b/Dust/ResourceGuide.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12795"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>UIMaterial</t>
+  </si>
+  <si>
+    <t>basicfont</t>
+  </si>
+  <si>
+    <t>Font</t>
+  </si>
+  <si>
+    <t>Dust Logo Design 1</t>
   </si>
 </sst>
 </file>
@@ -472,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,6 +713,50 @@
         <v>22</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C10">
     <sortCondition ref="A2"/>
